--- a/englishhao/稻壳/课程表/【竖版】课程表.xlsx
+++ b/englishhao/稻壳/课程表/【竖版】课程表.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="竖版（初、高中）" sheetId="1" r:id="rId1"/>
     <sheet name="竖版（小学）" sheetId="3" r:id="rId2"/>
     <sheet name="学科" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'竖版（小学）'!$B$1:$I$25</definedName>
   </definedNames>
@@ -22,12 +19,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>星期
 节次</t>
   </si>
   <si>
+    <t>作息时间</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>Time Table</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>晨读</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>第一节</t>
+  </si>
+  <si>
+    <t>第二节</t>
+  </si>
+  <si>
+    <t>课间操</t>
+  </si>
+  <si>
+    <t>第三节</t>
+  </si>
+  <si>
+    <t>第四节</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>放学</t>
+  </si>
+  <si>
+    <t>晚自习</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>任课教师情况</t>
+  </si>
+  <si>
+    <t>教师姓名</t>
+  </si>
+  <si>
+    <t>任教学科</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>信息技术</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
     <t>作息时间
 Time Table</t>
   </si>
@@ -52,102 +187,7 @@
 Friday</t>
   </si>
   <si>
-    <t>星期六
-Saturday</t>
-  </si>
-  <si>
-    <t>星期日
-Sunday</t>
-  </si>
-  <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>晨读</t>
-  </si>
-  <si>
-    <t>12:00-14:00</t>
-  </si>
-  <si>
-    <t>第一节</t>
-  </si>
-  <si>
-    <t>第二节</t>
-  </si>
-  <si>
-    <t>课间操</t>
-  </si>
-  <si>
-    <t>第三节</t>
-  </si>
-  <si>
-    <t>第四节</t>
-  </si>
-  <si>
-    <t>中午</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>放学</t>
-  </si>
-  <si>
-    <t>晚自习</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>教师情况</t>
-  </si>
-  <si>
-    <t>教师姓名</t>
-  </si>
-  <si>
-    <t>任教学科</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>信息技术</t>
-  </si>
-  <si>
-    <t>物理</t>
   </si>
   <si>
     <t>科学</t>
@@ -175,10 +215,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,15 +245,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,21 +310,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -250,25 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,17 +356,25 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,17 +393,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,21 +406,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,31 +416,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,49 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,48 +590,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,50 +600,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -689,6 +740,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -708,26 +800,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,27 +827,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +873,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -813,10 +905,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,137 +917,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,10 +1069,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,80 +1081,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,7 +1228,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>762635</xdr:colOff>
+      <xdr:colOff>707390</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
@@ -1147,8 +1245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3553460" y="285750"/>
-          <a:ext cx="3799840" cy="333375"/>
+          <a:off x="3265805" y="285750"/>
+          <a:ext cx="3534410" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,8 +1456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="41275"/>
-          <a:ext cx="1856740" cy="727710"/>
+          <a:off x="415290" y="41275"/>
+          <a:ext cx="1701800" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,7 +1474,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>960755</xdr:colOff>
+      <xdr:colOff>951865</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
@@ -1393,8 +1491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3293745" y="285750"/>
-          <a:ext cx="4276090" cy="333375"/>
+          <a:off x="3090545" y="285750"/>
+          <a:ext cx="3853180" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,8 +1702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742315" y="41275"/>
-          <a:ext cx="1856740" cy="727710"/>
+          <a:off x="702945" y="41275"/>
+          <a:ext cx="1701800" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,23 +1713,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="横版（初、高中）"/>
-      <sheetName val="横版（小学）"/>
-      <sheetName val="学科"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1895,16 +1976,16 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="2.12727272727273" customWidth="1"/>
+    <col min="2" max="2" width="4.37272727272727" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10.125" customWidth="1"/>
+    <col min="5" max="11" width="10.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:11">
@@ -1924,426 +2005,442 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:11">
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" ht="31" customHeight="1" spans="2:11">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" ht="31" customHeight="1" spans="2:11">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="31" customHeight="1" spans="2:11">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="31" customHeight="1" spans="2:11">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" ht="31" customHeight="1" spans="2:11">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="31" customHeight="1" spans="2:11">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="31" customHeight="1" spans="2:11">
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" ht="31" customHeight="1" spans="2:11">
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="31" customHeight="1" spans="2:11">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="2:11">
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="2:11">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="31" customHeight="1" spans="2:11">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="35"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" ht="31" customHeight="1" spans="2:11">
       <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="31" customHeight="1" spans="2:11">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:11">
-      <c r="B20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="19"/>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:11">
-      <c r="B21" s="20"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>25</v>
+      <c r="B21" s="18"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:11">
-      <c r="B22" s="22"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="24"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:11">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="24"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:11">
-      <c r="B24" s="22"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="24"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:11">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="24"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:11">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="24"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:11">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="24"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:11">
-      <c r="B28" s="25"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="13">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="B11:C11"/>
@@ -2355,14 +2452,6 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B21:E28"/>
   </mergeCells>
@@ -2383,17 +2472,17 @@
   <sheetPr/>
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.24166666666667" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="6.24545454545455" customWidth="1"/>
+    <col min="2" max="2" width="4.37272727272727" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="9" width="13.625" customWidth="1"/>
+    <col min="5" max="9" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:9">
@@ -2413,22 +2502,22 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:9">
@@ -2443,97 +2532,97 @@
     </row>
     <row r="5" ht="31" customHeight="1" spans="2:9">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" ht="31" customHeight="1" spans="2:9">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" ht="31" customHeight="1" spans="2:9">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" ht="31" customHeight="1" spans="2:9">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" ht="31" customHeight="1" spans="2:9">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" ht="31" customHeight="1" spans="2:9">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" ht="31" customHeight="1" spans="2:9">
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2543,99 +2632,99 @@
     </row>
     <row r="12" ht="31" customHeight="1" spans="2:9">
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" ht="31" customHeight="1" spans="2:9">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="2:9">
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="2:9">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" ht="31" customHeight="1" spans="2:9">
       <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" ht="31" customHeight="1" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="2:9">
-      <c r="B19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2644,92 +2733,92 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:9">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>25</v>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:9">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:9">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:9">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:9">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="2:9">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="2:9">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="24"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2760,7 +2849,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.354166666666667" right="0.275" top="0.904861111111111" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
+  <pageMargins left="0.354166666666667" right="0.275" top="0.904166666666667" bottom="0.393055555555556" header="0.393055555555556" footer="0.432638888888889"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2773,104 +2862,104 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
